--- a/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_31.07.24_output.xlsx
+++ b/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_31.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pupse</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -498,18 +498,26 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VT</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>60.85</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.4499999999999957</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -517,7 +525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C3" t="b">
@@ -537,16 +545,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>289.29</v>
+        <v>60.55</v>
       </c>
       <c r="H3" t="n">
-        <v>289.74</v>
+        <v>60.87</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4499999999999886</v>
+        <v>0.3200000000000003</v>
       </c>
       <c r="J3" t="n">
-        <v>0.16</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="4">
@@ -555,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>BSPB</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -566,7 +574,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -575,16 +583,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>6760.5</v>
+        <v>376.92</v>
       </c>
       <c r="H4" t="n">
-        <v>6792</v>
+        <v>373.48</v>
       </c>
       <c r="I4" t="n">
-        <v>31.5</v>
+        <v>3.439999999999998</v>
       </c>
       <c r="J4" t="n">
-        <v>0.47</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
@@ -593,13 +601,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>long</t>
@@ -611,16 +621,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6741.5</v>
+        <v>1416.6</v>
       </c>
       <c r="H5" t="n">
-        <v>6747.5</v>
+        <v>1421.8</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>5.200000000000045</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="6">
@@ -629,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -649,16 +659,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1040.6</v>
+        <v>6760.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1045.6</v>
+        <v>6792</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>31.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="7">
@@ -667,13 +677,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>long</t>
@@ -685,16 +697,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>11.893</v>
+        <v>51.245</v>
       </c>
       <c r="H7" t="n">
-        <v>11.859</v>
+        <v>51.285</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0340000000000007</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.29</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8">
@@ -703,16 +715,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -721,16 +735,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>128.58</v>
+        <v>165</v>
       </c>
       <c r="H8" t="n">
-        <v>129.82</v>
+        <v>165.2</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.239999999999981</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.96</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="9">
@@ -750,7 +764,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -759,16 +773,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>165</v>
+        <v>166.76</v>
       </c>
       <c r="H9" t="n">
-        <v>165.2</v>
+        <v>165.12</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1999999999999886</v>
+        <v>1.639999999999986</v>
       </c>
       <c r="J9" t="n">
-        <v>0.12</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="10">
@@ -777,7 +791,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -788,7 +802,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -797,16 +811,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>166.76</v>
+        <v>1040.6</v>
       </c>
       <c r="H10" t="n">
-        <v>165.12</v>
+        <v>1045.6</v>
       </c>
       <c r="I10" t="n">
-        <v>1.639999999999986</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>0.98</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="11">
@@ -815,7 +829,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -826,7 +840,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -835,16 +849,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>51.245</v>
+        <v>34.76</v>
       </c>
       <c r="H11" t="n">
-        <v>51.285</v>
+        <v>34.605</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03999999999999915</v>
+        <v>0.1550000000000011</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="12">
@@ -853,13 +867,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>long</t>
@@ -871,16 +887,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>50.61</v>
+        <v>289.29</v>
       </c>
       <c r="H12" t="n">
-        <v>50.74</v>
+        <v>289.74</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1300000000000026</v>
+        <v>0.4499999999999886</v>
       </c>
       <c r="J12" t="n">
-        <v>0.26</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="13">
@@ -889,7 +905,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -900,7 +916,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -909,16 +925,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1416.6</v>
+        <v>142.86</v>
       </c>
       <c r="H13" t="n">
-        <v>1421.8</v>
+        <v>142.06</v>
       </c>
       <c r="I13" t="n">
-        <v>5.200000000000045</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="J13" t="n">
-        <v>0.37</v>
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -927,18 +943,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>ABIO</t>
         </is>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -947,16 +961,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>61.3</v>
+        <v>84.81999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>60.85</v>
+        <v>84.88</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4499999999999957</v>
+        <v>0.06000000000000227</v>
       </c>
       <c r="J14" t="n">
-        <v>0.73</v>
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -965,15 +979,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>long</t>
@@ -985,16 +997,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>60.55</v>
+        <v>11.893</v>
       </c>
       <c r="H15" t="n">
-        <v>60.87</v>
+        <v>11.859</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3200000000000003</v>
+        <v>-0.0340000000000007</v>
       </c>
       <c r="J15" t="n">
-        <v>0.53</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="16">
@@ -1003,7 +1015,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -1021,16 +1033,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>58.38</v>
+        <v>0.09818</v>
       </c>
       <c r="H16" t="n">
-        <v>58.8</v>
+        <v>0.09991999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4199999999999946</v>
+        <v>-0.001739999999999992</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.72</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="17">
@@ -1039,15 +1051,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>short</t>
@@ -1059,16 +1069,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>142.86</v>
+        <v>128.58</v>
       </c>
       <c r="H17" t="n">
-        <v>142.06</v>
+        <v>129.82</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8000000000000114</v>
+        <v>-1.239999999999981</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5599999999999999</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="18">
@@ -1077,7 +1087,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -1086,7 +1096,7 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1095,16 +1105,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>143.56</v>
+        <v>6741.5</v>
       </c>
       <c r="H18" t="n">
-        <v>143.66</v>
+        <v>6747.5</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.09999999999999432</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06999999999999999</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="19">
@@ -1113,7 +1123,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ABIO</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -1131,16 +1141,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>84.81999999999999</v>
+        <v>50.61</v>
       </c>
       <c r="H19" t="n">
-        <v>84.88</v>
+        <v>50.74</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06000000000000227</v>
+        <v>0.1300000000000026</v>
       </c>
       <c r="J19" t="n">
-        <v>0.06999999999999999</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="20">
@@ -1149,15 +1159,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BSPB</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>short</t>
@@ -1169,16 +1177,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>376.92</v>
+        <v>58.38</v>
       </c>
       <c r="H20" t="n">
-        <v>373.48</v>
+        <v>58.8</v>
       </c>
       <c r="I20" t="n">
-        <v>3.439999999999998</v>
+        <v>-0.4199999999999946</v>
       </c>
       <c r="J20" t="n">
-        <v>0.91</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="21">
@@ -1187,7 +1195,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -1205,54 +1213,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.09818</v>
+        <v>143.56</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09991999999999999</v>
+        <v>143.66</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.001739999999999992</v>
+        <v>-0.09999999999999432</v>
       </c>
       <c r="J21" t="n">
-        <v>-1.77</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>RUAL</t>
-        </is>
-      </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>34.76</v>
-      </c>
-      <c r="H22" t="n">
-        <v>34.605</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.1550000000000011</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.45</v>
+        <v>-0.06999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1266,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1636,24 +1606,6 @@
         <v>-0.72</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>pupse</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
